--- a/Companies/Automobile - Auto & Truck Manufacturers/Mahindra and Mahindra Ltd/Pruned_Excel/8_Mar22_Mar23.xlsx
+++ b/Companies/Automobile - Auto & Truck Manufacturers/Mahindra and Mahindra Ltd/Pruned_Excel/8_Mar22_Mar23.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>17,123.98</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19,612.64</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20,839.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21,653.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>22,571.37</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21,653.74</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20,839.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>19,612.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17,123.98</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>22571.37</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>17123.98</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>20360.2</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>17,123.98</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19,612.64</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20,839.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21,653.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>22,571.37</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21,653.74</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20,839.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>19,612.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17,123.98</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>22571.37</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>17123.98</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>20360.2</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>12,081.73</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14,090.96</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16,366.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14,790.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>16,758.46</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14,790.54</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16,366.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>14,090.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12,081.73</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>16758.46</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>12081.73</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>14817.656</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>709.24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>778.06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>875.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>886.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>870.05</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>886.52</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>875.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>778.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>709.24</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>886.52</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>709.24</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>823.97</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>284.52</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>154.93</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-1,293.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>770.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>-706.59</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>770.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-1,293.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>154.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>284.52</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>770</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-1293.59</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-158.146</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>746.13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>836.22</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>912.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>934.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>949.02</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>934.22</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>912.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>836.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>746.13</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>949.02</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>746.13</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>875.6880000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>680.48</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>680.63</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>775.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>829.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>838.51</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>829.16</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>775.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>680.63</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>680.48</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>838.51</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>680.48</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>760.8720000000001</v>
       </c>
     </row>
     <row r="11">
@@ -804,32 +718,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>-42.83</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-58.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-58.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-42.83</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>-42.83</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>-58.71</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>-50.77</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,356.82</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,454.27</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,539.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,458.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,903.07</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,458.25</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,539.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,454.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,356.82</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1903.07</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1356.82</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1542.442</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,265.06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,660.40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,720.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,985.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1,958.85</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1,985.05</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,720.77</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,660.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,265.06</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1985.05</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1265.06</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>1718.026</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>238.70</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>238.58</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,325.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>670.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>333.86</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>670.01</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,325.88</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>238.58</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>238.70</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1325.88</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>238.58</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>561.4060000000001</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,503.76</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,898.98</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,046.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,655.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,292.71</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,655.06</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,046.65</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,898.98</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,503.76</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3046.65</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1503.76</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2279.432</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>55.82</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>69.79</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>68.56</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>63.66</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>69.79</t>
         </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>55.82</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>69.79000000000001</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>55.82</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>65.524</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,447.94</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,829.19</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,982.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,586.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2,222.92</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2,586.50</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,982.99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,829.19</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,447.94</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2982.99</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1447.94</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2213.908</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>124.79</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-40.97</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-247.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-628.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>-511.83</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-628.88</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-247.86</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-40.97</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>124.79</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>124.79</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-628.88</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-260.95</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,572.73</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,788.22</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,735.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,957.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,711.09</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,957.62</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,735.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,788.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,572.73</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2735.13</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1572.73</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1952.958</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>280.79</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>358.06</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>645.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>429.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>162.12</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>429.56</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>645.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>358.06</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>280.79</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>645.21</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>162.12</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>375.148</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,291.94</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1,430.16</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,089.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,528.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1,548.97</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,528.06</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,089.92</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,430.16</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,291.94</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2089.92</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1291.94</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1577.81</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1,291.94</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,430.16</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2,089.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,528.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1,548.97</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,528.06</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2,089.92</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1,430.16</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1,291.94</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2089.92</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1291.94</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1577.81</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>598.30</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>598.38</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>598.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>598.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>599.05</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>598.73</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>598.48</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>598.38</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>598.30</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>599.05</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>598.3</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>598.588</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>12.93</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>17.46</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>13.18</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>12.89</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>17.39</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>11.91</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>13.132</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>12.93</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>17.46</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>13.18</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>12.89</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>17.39</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>11.91</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>13.132</v>
       </c>
     </row>
     <row r="32"/>
